--- a/data/cleaned_data/2018_TX.xlsx
+++ b/data/cleaned_data/2018_TX.xlsx
@@ -2160,7 +2160,7 @@
         <v>262</v>
       </c>
       <c r="D2">
-        <v>297</v>
+        <v>433</v>
       </c>
       <c r="E2" t="s">
         <v>309</v>
@@ -2186,7 +2186,7 @@
         <v>263</v>
       </c>
       <c r="D3">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
         <v>310</v>
@@ -2212,7 +2212,7 @@
         <v>264</v>
       </c>
       <c r="D4">
-        <v>464</v>
+        <v>716</v>
       </c>
       <c r="E4" t="s">
         <v>311</v>
@@ -2238,7 +2238,7 @@
         <v>263</v>
       </c>
       <c r="D5">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
         <v>312</v>
@@ -2264,7 +2264,7 @@
         <v>265</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>313</v>
@@ -2290,7 +2290,7 @@
         <v>265</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>298</v>
@@ -2316,7 +2316,7 @@
         <v>266</v>
       </c>
       <c r="D8">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s">
         <v>314</v>
@@ -2342,7 +2342,7 @@
         <v>267</v>
       </c>
       <c r="D9">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
         <v>315</v>
@@ -2368,7 +2368,7 @@
         <v>265</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>316</v>
@@ -2388,7 +2388,7 @@
         <v>268</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
         <v>317</v>
@@ -2414,7 +2414,7 @@
         <v>269</v>
       </c>
       <c r="D12">
-        <v>429</v>
+        <v>692</v>
       </c>
       <c r="E12" t="s">
         <v>318</v>
@@ -2440,7 +2440,7 @@
         <v>265</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>319</v>
@@ -2460,7 +2460,7 @@
         <v>270</v>
       </c>
       <c r="D14">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
         <v>320</v>
@@ -2486,7 +2486,7 @@
         <v>271</v>
       </c>
       <c r="D15">
-        <v>1753</v>
+        <v>2695</v>
       </c>
       <c r="E15" t="s">
         <v>321</v>
@@ -2512,7 +2512,7 @@
         <v>272</v>
       </c>
       <c r="D16">
-        <v>17498</v>
+        <v>22878</v>
       </c>
       <c r="E16" t="s">
         <v>322</v>
@@ -2538,7 +2538,7 @@
         <v>273</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>323</v>
@@ -2558,7 +2558,7 @@
         <v>274</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
         <v>269</v>
@@ -2578,7 +2578,7 @@
         <v>268</v>
       </c>
       <c r="D19">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
         <v>324</v>
@@ -2598,7 +2598,7 @@
         <v>275</v>
       </c>
       <c r="D20">
-        <v>736</v>
+        <v>1124</v>
       </c>
       <c r="E20" t="s">
         <v>325</v>
@@ -2624,7 +2624,7 @@
         <v>271</v>
       </c>
       <c r="D21">
-        <v>1493</v>
+        <v>2219</v>
       </c>
       <c r="E21" t="s">
         <v>326</v>
@@ -2650,7 +2650,7 @@
         <v>275</v>
       </c>
       <c r="D22">
-        <v>881</v>
+        <v>1789</v>
       </c>
       <c r="E22" t="s">
         <v>327</v>
@@ -2676,7 +2676,7 @@
         <v>265</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
         <v>306</v>
@@ -2696,7 +2696,7 @@
         <v>274</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
         <v>262</v>
@@ -2716,7 +2716,7 @@
         <v>267</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
         <v>328</v>
@@ -2736,7 +2736,7 @@
         <v>276</v>
       </c>
       <c r="D26">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="E26" t="s">
         <v>329</v>
@@ -2762,7 +2762,7 @@
         <v>277</v>
       </c>
       <c r="D27">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="E27" t="s">
         <v>330</v>
@@ -2788,7 +2788,7 @@
         <v>278</v>
       </c>
       <c r="D28">
-        <v>208</v>
+        <v>352</v>
       </c>
       <c r="E28" t="s">
         <v>331</v>
@@ -2808,7 +2808,7 @@
         <v>266</v>
       </c>
       <c r="D29">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E29" t="s">
         <v>332</v>
@@ -2834,7 +2834,7 @@
         <v>270</v>
       </c>
       <c r="D30">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
         <v>333</v>
@@ -2860,7 +2860,7 @@
         <v>275</v>
       </c>
       <c r="D31">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
         <v>334</v>
@@ -2886,7 +2886,7 @@
         <v>279</v>
       </c>
       <c r="D32">
-        <v>2932</v>
+        <v>3664</v>
       </c>
       <c r="E32" t="s">
         <v>335</v>
@@ -2912,7 +2912,7 @@
         <v>276</v>
       </c>
       <c r="D33">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
         <v>336</v>
@@ -2938,7 +2938,7 @@
         <v>265</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
         <v>337</v>
@@ -2964,7 +2964,7 @@
         <v>267</v>
       </c>
       <c r="D35">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="E35" t="s">
         <v>338</v>
@@ -2984,7 +2984,7 @@
         <v>267</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
         <v>339</v>
@@ -3004,7 +3004,7 @@
         <v>280</v>
       </c>
       <c r="D37">
-        <v>255</v>
+        <v>390</v>
       </c>
       <c r="E37" t="s">
         <v>340</v>
@@ -3030,7 +3030,7 @@
         <v>281</v>
       </c>
       <c r="D38">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="E38" t="s">
         <v>341</v>
@@ -3056,7 +3056,7 @@
         <v>270</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
         <v>288</v>
@@ -3076,7 +3076,7 @@
         <v>273</v>
       </c>
       <c r="D40">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
         <v>342</v>
@@ -3102,7 +3102,7 @@
         <v>265</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
         <v>343</v>
@@ -3122,7 +3122,7 @@
         <v>274</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
         <v>295</v>
@@ -3142,7 +3142,7 @@
         <v>270</v>
       </c>
       <c r="D43">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
         <v>324</v>
@@ -3162,7 +3162,7 @@
         <v>282</v>
       </c>
       <c r="D44">
-        <v>4195</v>
+        <v>6324</v>
       </c>
       <c r="E44" t="s">
         <v>344</v>
@@ -3188,7 +3188,7 @@
         <v>270</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
         <v>262</v>
@@ -3208,7 +3208,7 @@
         <v>266</v>
       </c>
       <c r="D46">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="E46" t="s">
         <v>345</v>
@@ -3228,7 +3228,7 @@
         <v>283</v>
       </c>
       <c r="D47">
-        <v>665</v>
+        <v>1031</v>
       </c>
       <c r="E47" t="s">
         <v>346</v>
@@ -3254,7 +3254,7 @@
         <v>267</v>
       </c>
       <c r="D48">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E48" t="s">
         <v>347</v>
@@ -3274,7 +3274,7 @@
         <v>273</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E49" t="s">
         <v>348</v>
@@ -3294,7 +3294,7 @@
         <v>284</v>
       </c>
       <c r="D50">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
         <v>349</v>
@@ -3320,7 +3320,7 @@
         <v>277</v>
       </c>
       <c r="D51">
-        <v>197</v>
+        <v>349</v>
       </c>
       <c r="E51" t="s">
         <v>350</v>
@@ -3366,7 +3366,7 @@
         <v>273</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
         <v>351</v>
@@ -3386,7 +3386,7 @@
         <v>276</v>
       </c>
       <c r="D54">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E54" t="s">
         <v>352</v>
@@ -3406,7 +3406,7 @@
         <v>270</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
         <v>302</v>
@@ -3432,7 +3432,7 @@
         <v>278</v>
       </c>
       <c r="D56">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E56" t="s">
         <v>353</v>
@@ -3452,7 +3452,7 @@
         <v>265</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
         <v>354</v>
@@ -3472,7 +3472,7 @@
         <v>285</v>
       </c>
       <c r="D58">
-        <v>20269</v>
+        <v>27830</v>
       </c>
       <c r="E58" t="s">
         <v>355</v>
@@ -3498,7 +3498,7 @@
         <v>265</v>
       </c>
       <c r="D59">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
         <v>356</v>
@@ -3524,7 +3524,7 @@
         <v>267</v>
       </c>
       <c r="D60">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="E60" t="s">
         <v>285</v>
@@ -3550,7 +3550,7 @@
         <v>265</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
         <v>282</v>
@@ -3570,7 +3570,7 @@
         <v>286</v>
       </c>
       <c r="D62">
-        <v>3166</v>
+        <v>4639</v>
       </c>
       <c r="E62" t="s">
         <v>357</v>
@@ -3596,7 +3596,7 @@
         <v>267</v>
       </c>
       <c r="D63">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="E63" t="s">
         <v>358</v>
@@ -3616,7 +3616,7 @@
         <v>265</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
         <v>289</v>
@@ -3636,7 +3636,7 @@
         <v>266</v>
       </c>
       <c r="D65">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E65" t="s">
         <v>359</v>
@@ -3656,7 +3656,7 @@
         <v>267</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
         <v>360</v>
@@ -3676,7 +3676,7 @@
         <v>276</v>
       </c>
       <c r="D67">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s">
         <v>361</v>
@@ -3702,7 +3702,7 @@
         <v>284</v>
       </c>
       <c r="D68">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
         <v>362</v>
@@ -3722,7 +3722,7 @@
         <v>287</v>
       </c>
       <c r="D69">
-        <v>1049</v>
+        <v>1801</v>
       </c>
       <c r="E69" t="s">
         <v>363</v>
@@ -3748,7 +3748,7 @@
         <v>270</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
         <v>364</v>
@@ -3768,7 +3768,7 @@
         <v>281</v>
       </c>
       <c r="D71">
-        <v>794</v>
+        <v>1221</v>
       </c>
       <c r="E71" t="s">
         <v>365</v>
@@ -3794,7 +3794,7 @@
         <v>288</v>
       </c>
       <c r="D72">
-        <v>5115</v>
+        <v>7543</v>
       </c>
       <c r="E72" t="s">
         <v>366</v>
@@ -3820,7 +3820,7 @@
         <v>280</v>
       </c>
       <c r="D73">
-        <v>187</v>
+        <v>349</v>
       </c>
       <c r="E73" t="s">
         <v>367</v>
@@ -3846,7 +3846,7 @@
         <v>267</v>
       </c>
       <c r="D74">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="E74" t="s">
         <v>368</v>
@@ -3872,7 +3872,7 @@
         <v>284</v>
       </c>
       <c r="D75">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E75" t="s">
         <v>369</v>
@@ -3898,7 +3898,7 @@
         <v>268</v>
       </c>
       <c r="D76">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="E76" t="s">
         <v>370</v>
@@ -3918,7 +3918,7 @@
         <v>270</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E77" t="s">
         <v>371</v>
@@ -3938,7 +3938,7 @@
         <v>274</v>
       </c>
       <c r="D78">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
         <v>372</v>
@@ -3958,7 +3958,7 @@
         <v>274</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
         <v>277</v>
@@ -3978,7 +3978,7 @@
         <v>289</v>
       </c>
       <c r="D80">
-        <v>2576</v>
+        <v>3561</v>
       </c>
       <c r="E80" t="s">
         <v>373</v>
@@ -4004,7 +4004,7 @@
         <v>265</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
         <v>374</v>
@@ -4024,7 +4024,7 @@
         <v>266</v>
       </c>
       <c r="D82">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="E82" t="s">
         <v>375</v>
@@ -4044,7 +4044,7 @@
         <v>290</v>
       </c>
       <c r="D83">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="E83" t="s">
         <v>376</v>
@@ -4070,7 +4070,7 @@
         <v>278</v>
       </c>
       <c r="D84">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="E84" t="s">
         <v>377</v>
@@ -4090,7 +4090,7 @@
         <v>291</v>
       </c>
       <c r="D85">
-        <v>1650</v>
+        <v>2460</v>
       </c>
       <c r="E85" t="s">
         <v>378</v>
@@ -4116,7 +4116,7 @@
         <v>277</v>
       </c>
       <c r="D86">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E86" t="s">
         <v>379</v>
@@ -4136,7 +4136,7 @@
         <v>284</v>
       </c>
       <c r="D87">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="E87" t="s">
         <v>380</v>
@@ -4162,7 +4162,7 @@
         <v>267</v>
       </c>
       <c r="D88">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E88" t="s">
         <v>371</v>
@@ -4182,7 +4182,7 @@
         <v>276</v>
       </c>
       <c r="D89">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E89" t="s">
         <v>381</v>
@@ -4208,7 +4208,7 @@
         <v>277</v>
       </c>
       <c r="D90">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="E90" t="s">
         <v>382</v>
@@ -4228,7 +4228,7 @@
         <v>276</v>
       </c>
       <c r="D91">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="E91" t="s">
         <v>383</v>
@@ -4254,7 +4254,7 @@
         <v>280</v>
       </c>
       <c r="D92">
-        <v>590</v>
+        <v>987</v>
       </c>
       <c r="E92" t="s">
         <v>384</v>
@@ -4280,7 +4280,7 @@
         <v>292</v>
       </c>
       <c r="D93">
-        <v>1359</v>
+        <v>1839</v>
       </c>
       <c r="E93" t="s">
         <v>385</v>
@@ -4306,7 +4306,7 @@
         <v>275</v>
       </c>
       <c r="D94">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="E94" t="s">
         <v>386</v>
@@ -4326,7 +4326,7 @@
         <v>292</v>
       </c>
       <c r="D95">
-        <v>648</v>
+        <v>904</v>
       </c>
       <c r="E95" t="s">
         <v>387</v>
@@ -4352,7 +4352,7 @@
         <v>266</v>
       </c>
       <c r="D96">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="E96" t="s">
         <v>388</v>
@@ -4378,7 +4378,7 @@
         <v>270</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E97" t="s">
         <v>287</v>
@@ -4398,7 +4398,7 @@
         <v>267</v>
       </c>
       <c r="D98">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
         <v>389</v>
@@ -4418,7 +4418,7 @@
         <v>270</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
         <v>275</v>
@@ -4438,7 +4438,7 @@
         <v>265</v>
       </c>
       <c r="D100">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E100" t="s">
         <v>390</v>
@@ -4458,7 +4458,7 @@
         <v>293</v>
       </c>
       <c r="D101">
-        <v>271</v>
+        <v>403</v>
       </c>
       <c r="E101" t="s">
         <v>391</v>
@@ -4484,7 +4484,7 @@
         <v>294</v>
       </c>
       <c r="D102">
-        <v>33905</v>
+        <v>44714</v>
       </c>
       <c r="E102" t="s">
         <v>392</v>
@@ -4510,7 +4510,7 @@
         <v>295</v>
       </c>
       <c r="D103">
-        <v>502</v>
+        <v>712</v>
       </c>
       <c r="E103" t="s">
         <v>393</v>
@@ -4536,7 +4536,7 @@
         <v>273</v>
       </c>
       <c r="D104">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E104" t="s">
         <v>394</v>
@@ -4556,7 +4556,7 @@
         <v>265</v>
       </c>
       <c r="D105">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E105" t="s">
         <v>339</v>
@@ -4576,7 +4576,7 @@
         <v>296</v>
       </c>
       <c r="D106">
-        <v>903</v>
+        <v>1425</v>
       </c>
       <c r="E106" t="s">
         <v>395</v>
@@ -4602,7 +4602,7 @@
         <v>274</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E107" t="s">
         <v>290</v>
@@ -4622,7 +4622,7 @@
         <v>297</v>
       </c>
       <c r="D108">
-        <v>275</v>
+        <v>445</v>
       </c>
       <c r="E108" t="s">
         <v>396</v>
@@ -4648,7 +4648,7 @@
         <v>298</v>
       </c>
       <c r="D109">
-        <v>8262</v>
+        <v>10360</v>
       </c>
       <c r="E109" t="s">
         <v>397</v>
@@ -4674,7 +4674,7 @@
         <v>290</v>
       </c>
       <c r="D110">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="E110" t="s">
         <v>398</v>
@@ -4694,7 +4694,7 @@
         <v>274</v>
       </c>
       <c r="D111">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E111" t="s">
         <v>399</v>
@@ -4720,7 +4720,7 @@
         <v>273</v>
       </c>
       <c r="D112">
-        <v>271</v>
+        <v>410</v>
       </c>
       <c r="E112" t="s">
         <v>400</v>
@@ -4746,7 +4746,7 @@
         <v>290</v>
       </c>
       <c r="D113">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="E113" t="s">
         <v>401</v>
@@ -4772,7 +4772,7 @@
         <v>268</v>
       </c>
       <c r="D114">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="E114" t="s">
         <v>285</v>
@@ -4792,7 +4792,7 @@
         <v>263</v>
       </c>
       <c r="D115">
-        <v>192</v>
+        <v>361</v>
       </c>
       <c r="E115" t="s">
         <v>402</v>
@@ -4818,7 +4818,7 @@
         <v>268</v>
       </c>
       <c r="D116">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E116" t="s">
         <v>403</v>
@@ -4844,7 +4844,7 @@
         <v>293</v>
       </c>
       <c r="D117">
-        <v>566</v>
+        <v>822</v>
       </c>
       <c r="E117" t="s">
         <v>404</v>
@@ -4870,7 +4870,7 @@
         <v>267</v>
       </c>
       <c r="D118">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E118" t="s">
         <v>405</v>
@@ -4896,7 +4896,7 @@
         <v>274</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E119" t="s">
         <v>291</v>
@@ -4922,7 +4922,7 @@
         <v>267</v>
       </c>
       <c r="D120">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E120" t="s">
         <v>406</v>
@@ -4942,7 +4942,7 @@
         <v>263</v>
       </c>
       <c r="D121">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E121" t="s">
         <v>407</v>
@@ -4962,7 +4962,7 @@
         <v>278</v>
       </c>
       <c r="D122">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="E122" t="s">
         <v>408</v>
@@ -4982,7 +4982,7 @@
         <v>274</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E123" t="s">
         <v>298</v>
@@ -5002,7 +5002,7 @@
         <v>299</v>
       </c>
       <c r="D124">
-        <v>2295</v>
+        <v>3260</v>
       </c>
       <c r="E124" t="s">
         <v>409</v>
@@ -5028,7 +5028,7 @@
         <v>270</v>
       </c>
       <c r="D125">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E125" t="s">
         <v>410</v>
@@ -5048,7 +5048,7 @@
         <v>284</v>
       </c>
       <c r="D126">
-        <v>276</v>
+        <v>388</v>
       </c>
       <c r="E126" t="s">
         <v>411</v>
@@ -5074,7 +5074,7 @@
         <v>300</v>
       </c>
       <c r="D127">
-        <v>767</v>
+        <v>1251</v>
       </c>
       <c r="E127" t="s">
         <v>412</v>
@@ -5100,7 +5100,7 @@
         <v>267</v>
       </c>
       <c r="D128">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E128" t="s">
         <v>413</v>
@@ -5126,7 +5126,7 @@
         <v>267</v>
       </c>
       <c r="D129">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="E129" t="s">
         <v>414</v>
@@ -5146,7 +5146,7 @@
         <v>296</v>
       </c>
       <c r="D130">
-        <v>670</v>
+        <v>870</v>
       </c>
       <c r="E130" t="s">
         <v>415</v>
@@ -5172,7 +5172,7 @@
         <v>265</v>
       </c>
       <c r="D131">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="E131" t="s">
         <v>416</v>
@@ -5198,7 +5198,7 @@
         <v>276</v>
       </c>
       <c r="D132">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E132" t="s">
         <v>371</v>
@@ -5224,7 +5224,7 @@
         <v>274</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E133" t="s">
         <v>268</v>
@@ -5244,7 +5244,7 @@
         <v>266</v>
       </c>
       <c r="D134">
-        <v>241</v>
+        <v>377</v>
       </c>
       <c r="E134" t="s">
         <v>417</v>
@@ -5270,7 +5270,7 @@
         <v>263</v>
       </c>
       <c r="D135">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E135" t="s">
         <v>418</v>
@@ -5310,7 +5310,7 @@
         <v>270</v>
       </c>
       <c r="D137">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E137" t="s">
         <v>419</v>
@@ -5330,7 +5330,7 @@
         <v>270</v>
       </c>
       <c r="D138">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="E138" t="s">
         <v>420</v>
@@ -5356,7 +5356,7 @@
         <v>274</v>
       </c>
       <c r="D139">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
         <v>421</v>
@@ -5376,7 +5376,7 @@
         <v>275</v>
       </c>
       <c r="D140">
-        <v>292</v>
+        <v>432</v>
       </c>
       <c r="E140" t="s">
         <v>422</v>
@@ -5402,7 +5402,7 @@
         <v>268</v>
       </c>
       <c r="D141">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E141" t="s">
         <v>423</v>
@@ -5422,7 +5422,7 @@
         <v>268</v>
       </c>
       <c r="D142">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="E142" t="s">
         <v>424</v>
@@ -5448,7 +5448,7 @@
         <v>268</v>
       </c>
       <c r="D143">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E143" t="s">
         <v>316</v>
@@ -5468,7 +5468,7 @@
         <v>273</v>
       </c>
       <c r="D144">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E144" t="s">
         <v>425</v>
@@ -5488,7 +5488,7 @@
         <v>273</v>
       </c>
       <c r="D145">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="E145" t="s">
         <v>426</v>
@@ -5508,7 +5508,7 @@
         <v>281</v>
       </c>
       <c r="D146">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="E146" t="s">
         <v>427</v>
@@ -5528,7 +5528,7 @@
         <v>301</v>
       </c>
       <c r="D147">
-        <v>341</v>
+        <v>515</v>
       </c>
       <c r="E147" t="s">
         <v>428</v>
@@ -5554,7 +5554,7 @@
         <v>267</v>
       </c>
       <c r="D148">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E148" t="s">
         <v>429</v>
@@ -5574,7 +5574,7 @@
         <v>274</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E149" t="s">
         <v>295</v>
@@ -5594,7 +5594,7 @@
         <v>270</v>
       </c>
       <c r="D150">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="E150" t="s">
         <v>430</v>
@@ -5614,7 +5614,7 @@
         <v>276</v>
       </c>
       <c r="D151">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E151" t="s">
         <v>431</v>
@@ -5634,7 +5634,7 @@
         <v>273</v>
       </c>
       <c r="D152">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E152" t="s">
         <v>432</v>
@@ -5660,7 +5660,7 @@
         <v>292</v>
       </c>
       <c r="D153">
-        <v>3384</v>
+        <v>4098</v>
       </c>
       <c r="E153" t="s">
         <v>433</v>
@@ -5686,7 +5686,7 @@
         <v>276</v>
       </c>
       <c r="D154">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E154" t="s">
         <v>434</v>
@@ -5712,7 +5712,7 @@
         <v>270</v>
       </c>
       <c r="D155">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="E155" t="s">
         <v>435</v>
@@ -5732,7 +5732,7 @@
         <v>270</v>
       </c>
       <c r="D156">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E156" t="s">
         <v>389</v>
@@ -5752,7 +5752,7 @@
         <v>278</v>
       </c>
       <c r="D157">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="E157" t="s">
         <v>436</v>
@@ -5778,7 +5778,7 @@
         <v>270</v>
       </c>
       <c r="D158">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E158" t="s">
         <v>437</v>
@@ -5798,7 +5798,7 @@
         <v>277</v>
       </c>
       <c r="D159">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="E159" t="s">
         <v>438</v>
@@ -5824,7 +5824,7 @@
         <v>273</v>
       </c>
       <c r="D160">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="E160" t="s">
         <v>439</v>
@@ -5850,7 +5850,7 @@
         <v>267</v>
       </c>
       <c r="D161">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E161" t="s">
         <v>374</v>
@@ -5870,7 +5870,7 @@
         <v>269</v>
       </c>
       <c r="D162">
-        <v>1672</v>
+        <v>2611</v>
       </c>
       <c r="E162" t="s">
         <v>440</v>
@@ -5896,7 +5896,7 @@
         <v>265</v>
       </c>
       <c r="D163">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E163" t="s">
         <v>372</v>
@@ -5916,7 +5916,7 @@
         <v>293</v>
       </c>
       <c r="D164">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="E164" t="s">
         <v>441</v>
@@ -5942,7 +5942,7 @@
         <v>265</v>
       </c>
       <c r="D165">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E165" t="s">
         <v>287</v>
@@ -5962,7 +5962,7 @@
         <v>298</v>
       </c>
       <c r="D166">
-        <v>1351</v>
+        <v>2187</v>
       </c>
       <c r="E166" t="s">
         <v>442</v>
@@ -5988,7 +5988,7 @@
         <v>293</v>
       </c>
       <c r="D167">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="E167" t="s">
         <v>443</v>
@@ -6008,7 +6008,7 @@
         <v>276</v>
       </c>
       <c r="D168">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E168" t="s">
         <v>444</v>
@@ -6028,7 +6028,7 @@
         <v>273</v>
       </c>
       <c r="D169">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E169" t="s">
         <v>445</v>
@@ -6048,7 +6048,7 @@
         <v>277</v>
       </c>
       <c r="D170">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E170" t="s">
         <v>446</v>
@@ -6068,7 +6068,7 @@
         <v>302</v>
       </c>
       <c r="D171">
-        <v>2784</v>
+        <v>4323</v>
       </c>
       <c r="E171" t="s">
         <v>447</v>
@@ -6094,7 +6094,7 @@
         <v>268</v>
       </c>
       <c r="D172">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E172" t="s">
         <v>448</v>
@@ -6120,7 +6120,7 @@
         <v>265</v>
       </c>
       <c r="D173">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E173" t="s">
         <v>354</v>
@@ -6140,7 +6140,7 @@
         <v>274</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E174" t="s">
         <v>295</v>
@@ -6160,7 +6160,7 @@
         <v>284</v>
       </c>
       <c r="D175">
-        <v>302</v>
+        <v>446</v>
       </c>
       <c r="E175" t="s">
         <v>449</v>
@@ -6186,7 +6186,7 @@
         <v>276</v>
       </c>
       <c r="D176">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="E176" t="s">
         <v>450</v>
@@ -6212,7 +6212,7 @@
         <v>270</v>
       </c>
       <c r="D177">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E177" t="s">
         <v>451</v>
@@ -6232,7 +6232,7 @@
         <v>263</v>
       </c>
       <c r="D178">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="E178" t="s">
         <v>452</v>
@@ -6258,7 +6258,7 @@
         <v>291</v>
       </c>
       <c r="D179">
-        <v>2781</v>
+        <v>3659</v>
       </c>
       <c r="E179" t="s">
         <v>453</v>
@@ -6284,7 +6284,7 @@
         <v>270</v>
       </c>
       <c r="D180">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E180" t="s">
         <v>337</v>
@@ -6304,7 +6304,7 @@
         <v>265</v>
       </c>
       <c r="D181">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E181" t="s">
         <v>454</v>
@@ -6330,7 +6330,7 @@
         <v>301</v>
       </c>
       <c r="D182">
-        <v>496</v>
+        <v>790</v>
       </c>
       <c r="E182" t="s">
         <v>455</v>
@@ -6356,7 +6356,7 @@
         <v>263</v>
       </c>
       <c r="D183">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="E183" t="s">
         <v>382</v>
@@ -6382,7 +6382,7 @@
         <v>283</v>
       </c>
       <c r="D184">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="E184" t="s">
         <v>375</v>
@@ -6402,7 +6402,7 @@
         <v>303</v>
       </c>
       <c r="D185">
-        <v>486</v>
+        <v>754</v>
       </c>
       <c r="E185" t="s">
         <v>456</v>
@@ -6428,7 +6428,7 @@
         <v>267</v>
       </c>
       <c r="D186">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E186" t="s">
         <v>457</v>
@@ -6448,7 +6448,7 @@
         <v>266</v>
       </c>
       <c r="D187">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="E187" t="s">
         <v>435</v>
@@ -6468,7 +6468,7 @@
         <v>281</v>
       </c>
       <c r="D188">
-        <v>196</v>
+        <v>353</v>
       </c>
       <c r="E188" t="s">
         <v>458</v>
@@ -6488,7 +6488,7 @@
         <v>300</v>
       </c>
       <c r="D189">
-        <v>972</v>
+        <v>1363</v>
       </c>
       <c r="E189" t="s">
         <v>459</v>
@@ -6514,7 +6514,7 @@
         <v>274</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E190" t="s">
         <v>460</v>
@@ -6534,7 +6534,7 @@
         <v>267</v>
       </c>
       <c r="D191">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E191" t="s">
         <v>461</v>
@@ -6554,7 +6554,7 @@
         <v>266</v>
       </c>
       <c r="D192">
-        <v>618</v>
+        <v>864</v>
       </c>
       <c r="E192" t="s">
         <v>462</v>
@@ -6580,7 +6580,7 @@
         <v>267</v>
       </c>
       <c r="D193">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E193" t="s">
         <v>463</v>
@@ -6600,7 +6600,7 @@
         <v>274</v>
       </c>
       <c r="D194">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E194" t="s">
         <v>464</v>
@@ -6620,7 +6620,7 @@
         <v>276</v>
       </c>
       <c r="D195">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E195" t="s">
         <v>465</v>
@@ -6640,7 +6640,7 @@
         <v>289</v>
       </c>
       <c r="D196">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="E196" t="s">
         <v>466</v>
@@ -6666,7 +6666,7 @@
         <v>276</v>
       </c>
       <c r="D197">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E197" t="s">
         <v>467</v>
@@ -6686,7 +6686,7 @@
         <v>265</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E198" t="s">
         <v>289</v>
@@ -6712,7 +6712,7 @@
         <v>278</v>
       </c>
       <c r="D199">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="E199" t="s">
         <v>468</v>
@@ -6738,7 +6738,7 @@
         <v>278</v>
       </c>
       <c r="D200">
-        <v>377</v>
+        <v>514</v>
       </c>
       <c r="E200" t="s">
         <v>469</v>
@@ -6764,7 +6764,7 @@
         <v>267</v>
       </c>
       <c r="D201">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E201" t="s">
         <v>470</v>
@@ -6784,7 +6784,7 @@
         <v>300</v>
       </c>
       <c r="D202">
-        <v>245</v>
+        <v>359</v>
       </c>
       <c r="E202" t="s">
         <v>471</v>
@@ -6810,7 +6810,7 @@
         <v>274</v>
       </c>
       <c r="D203">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E203" t="s">
         <v>472</v>
@@ -6830,7 +6830,7 @@
         <v>277</v>
       </c>
       <c r="D204">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E204" t="s">
         <v>473</v>
@@ -6850,7 +6850,7 @@
         <v>266</v>
       </c>
       <c r="D205">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="E205" t="s">
         <v>474</v>
@@ -6870,7 +6870,7 @@
         <v>266</v>
       </c>
       <c r="D206">
-        <v>269</v>
+        <v>419</v>
       </c>
       <c r="E206" t="s">
         <v>475</v>
@@ -6896,7 +6896,7 @@
         <v>265</v>
       </c>
       <c r="D207">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E207" t="s">
         <v>371</v>
@@ -6916,7 +6916,7 @@
         <v>265</v>
       </c>
       <c r="D208">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E208" t="s">
         <v>286</v>
@@ -6936,7 +6936,7 @@
         <v>278</v>
       </c>
       <c r="D209">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E209" t="s">
         <v>467</v>
@@ -6962,7 +6962,7 @@
         <v>274</v>
       </c>
       <c r="D210">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E210" t="s">
         <v>476</v>
@@ -6982,7 +6982,7 @@
         <v>266</v>
       </c>
       <c r="D211">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="E211" t="s">
         <v>477</v>
@@ -7002,7 +7002,7 @@
         <v>270</v>
       </c>
       <c r="D212">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E212" t="s">
         <v>478</v>
@@ -7022,7 +7022,7 @@
         <v>304</v>
       </c>
       <c r="D213">
-        <v>1814</v>
+        <v>2571</v>
       </c>
       <c r="E213" t="s">
         <v>479</v>
@@ -7048,7 +7048,7 @@
         <v>273</v>
       </c>
       <c r="D214">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E214" t="s">
         <v>394</v>
@@ -7068,7 +7068,7 @@
         <v>267</v>
       </c>
       <c r="D215">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="E215" t="s">
         <v>480</v>
@@ -7094,7 +7094,7 @@
         <v>274</v>
       </c>
       <c r="D216">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E216" t="s">
         <v>288</v>
@@ -7114,7 +7114,7 @@
         <v>277</v>
       </c>
       <c r="D217">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E217" t="s">
         <v>437</v>
@@ -7140,7 +7140,7 @@
         <v>274</v>
       </c>
       <c r="D218">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E218" t="s">
         <v>301</v>
@@ -7160,7 +7160,7 @@
         <v>276</v>
       </c>
       <c r="D219">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E219" t="s">
         <v>394</v>
@@ -7180,7 +7180,7 @@
         <v>265</v>
       </c>
       <c r="D220">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E220" t="s">
         <v>481</v>
@@ -7200,7 +7200,7 @@
         <v>305</v>
       </c>
       <c r="D221">
-        <v>12521</v>
+        <v>17386</v>
       </c>
       <c r="E221" t="s">
         <v>482</v>
@@ -7226,7 +7226,7 @@
         <v>296</v>
       </c>
       <c r="D222">
-        <v>1208</v>
+        <v>1869</v>
       </c>
       <c r="E222" t="s">
         <v>483</v>
@@ -7252,7 +7252,7 @@
         <v>274</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E223" t="s">
         <v>269</v>
@@ -7272,7 +7272,7 @@
         <v>277</v>
       </c>
       <c r="D224">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E224" t="s">
         <v>423</v>
@@ -7292,7 +7292,7 @@
         <v>270</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E225" t="s">
         <v>293</v>
@@ -7312,7 +7312,7 @@
         <v>290</v>
       </c>
       <c r="D226">
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="E226" t="s">
         <v>484</v>
@@ -7338,7 +7338,7 @@
         <v>290</v>
       </c>
       <c r="D227">
-        <v>449</v>
+        <v>865</v>
       </c>
       <c r="E227" t="s">
         <v>485</v>
@@ -7364,7 +7364,7 @@
         <v>306</v>
       </c>
       <c r="D228">
-        <v>6833</v>
+        <v>11899</v>
       </c>
       <c r="E228" t="s">
         <v>486</v>
@@ -7390,7 +7390,7 @@
         <v>265</v>
       </c>
       <c r="D229">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E229" t="s">
         <v>487</v>
@@ -7410,7 +7410,7 @@
         <v>290</v>
       </c>
       <c r="D230">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E230" t="s">
         <v>376</v>
@@ -7430,7 +7430,7 @@
         <v>278</v>
       </c>
       <c r="D231">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="E231" t="s">
         <v>488</v>
@@ -7456,7 +7456,7 @@
         <v>270</v>
       </c>
       <c r="D232">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E232" t="s">
         <v>489</v>
@@ -7476,7 +7476,7 @@
         <v>265</v>
       </c>
       <c r="D233">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E233" t="s">
         <v>490</v>
@@ -7502,7 +7502,7 @@
         <v>270</v>
       </c>
       <c r="D234">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="E234" t="s">
         <v>491</v>
@@ -7528,7 +7528,7 @@
         <v>275</v>
       </c>
       <c r="D235">
-        <v>344</v>
+        <v>519</v>
       </c>
       <c r="E235" t="s">
         <v>492</v>
@@ -7548,7 +7548,7 @@
         <v>293</v>
       </c>
       <c r="D236">
-        <v>382</v>
+        <v>584</v>
       </c>
       <c r="E236" t="s">
         <v>493</v>
@@ -7574,7 +7574,7 @@
         <v>262</v>
       </c>
       <c r="D237">
-        <v>417</v>
+        <v>570</v>
       </c>
       <c r="E237" t="s">
         <v>494</v>
@@ -7600,7 +7600,7 @@
         <v>284</v>
       </c>
       <c r="D238">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="E238" t="s">
         <v>495</v>
@@ -7626,7 +7626,7 @@
         <v>264</v>
       </c>
       <c r="D239">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="E239" t="s">
         <v>496</v>
@@ -7646,7 +7646,7 @@
         <v>278</v>
       </c>
       <c r="D240">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="E240" t="s">
         <v>497</v>
@@ -7672,7 +7672,7 @@
         <v>307</v>
       </c>
       <c r="D241">
-        <v>1664</v>
+        <v>2557</v>
       </c>
       <c r="E241" t="s">
         <v>498</v>
@@ -7698,7 +7698,7 @@
         <v>293</v>
       </c>
       <c r="D242">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="E242" t="s">
         <v>499</v>
@@ -7724,7 +7724,7 @@
         <v>265</v>
       </c>
       <c r="D243">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E243" t="s">
         <v>298</v>
@@ -7744,7 +7744,7 @@
         <v>281</v>
       </c>
       <c r="D244">
-        <v>392</v>
+        <v>700</v>
       </c>
       <c r="E244" t="s">
         <v>500</v>
@@ -7770,7 +7770,7 @@
         <v>267</v>
       </c>
       <c r="D245">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E245" t="s">
         <v>501</v>
@@ -7796,7 +7796,7 @@
         <v>267</v>
       </c>
       <c r="D246">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E246" t="s">
         <v>502</v>
@@ -7822,7 +7822,7 @@
         <v>299</v>
       </c>
       <c r="D247">
-        <v>1604</v>
+        <v>2733</v>
       </c>
       <c r="E247" t="s">
         <v>503</v>
@@ -7848,7 +7848,7 @@
         <v>278</v>
       </c>
       <c r="D248">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="E248" t="s">
         <v>504</v>
@@ -7874,7 +7874,7 @@
         <v>308</v>
       </c>
       <c r="D249">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E249" t="s">
         <v>505</v>
@@ -7894,7 +7894,7 @@
         <v>281</v>
       </c>
       <c r="D250">
-        <v>213</v>
+        <v>363</v>
       </c>
       <c r="E250" t="s">
         <v>506</v>
@@ -7920,7 +7920,7 @@
         <v>268</v>
       </c>
       <c r="D251">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="E251" t="s">
         <v>507</v>
@@ -7940,7 +7940,7 @@
         <v>267</v>
       </c>
       <c r="D252">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E252" t="s">
         <v>379</v>
@@ -7960,7 +7960,7 @@
         <v>276</v>
       </c>
       <c r="D253">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E253" t="s">
         <v>359</v>
@@ -7980,7 +7980,7 @@
         <v>270</v>
       </c>
       <c r="D254">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E254" t="s">
         <v>508</v>
@@ -8006,7 +8006,7 @@
         <v>268</v>
       </c>
       <c r="D255">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E255" t="s">
         <v>390</v>
